--- a/Data/Interview Data Mask.xlsx
+++ b/Data/Interview Data Mask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emin\Desktop\PP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\7th Semester\Digitalization real project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589C2F37-8137-4139-81DA-ED87074393C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CBA09B-7E84-4969-BDF7-6D4C5EDBD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview With Restaurant Owner" sheetId="1" r:id="rId1"/>
@@ -49,49 +49,49 @@
   <commentList>
     <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{7BCE9BD0-B889-472C-8E01-90EC4169F61B}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Please be careful: German questionnaire version has a divergent coding, with 1=not important and 5=very important; please code your German questionnaires as they are on paper but highlight them here in Excel in yellow, so that I can convert them automatically. Thanks!</t>
       </text>
     </comment>
     <comment ref="BA1" authorId="1" shapeId="0" xr:uid="{CE915908-2340-403A-BC7A-980EAECF30D6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Please be careful: German questionnaire version has a divergent coding, with 1=not important and 5=very important; please code your German questionnaires as they are on paper but highlight them here in Excel in yellow, so that I can convert them automatically. Thanks!</t>
       </text>
     </comment>
     <comment ref="BB1" authorId="2" shapeId="0" xr:uid="{85FBECB6-5B8D-4B9F-98FF-D4CBC465ECA4}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Please be careful: German questionnaire version has a divergent coding, with 1=not important and 5=very important; please code your German questionnaires as they are on paper but highlight them here in Excel in yellow, so that I can convert them automatically. Thanks!</t>
       </text>
     </comment>
     <comment ref="BC1" authorId="3" shapeId="0" xr:uid="{1D6ACA4F-2B72-431D-8435-F95CB20B3092}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Please be careful: German questionnaire version has a divergent coding, with 1=not important and 5=very important; please code your German questionnaires as they are on paper but highlight them here in Excel in yellow, so that I can convert them automatically. Thanks!</t>
       </text>
     </comment>
     <comment ref="BD1" authorId="4" shapeId="0" xr:uid="{151221DC-5832-43C9-BC17-F9D5D0F6558C}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Please be careful: German questionnaire version has a divergent coding, with 1=not important and 5=very important; please code your German questionnaires as they are on paper but highlight them here in Excel in yellow, so that I can convert them automatically. Thanks!</t>
       </text>
     </comment>
     <comment ref="BE1" authorId="5" shapeId="0" xr:uid="{D7AADC3E-48C8-45DA-9C8D-CCA560527395}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Please be careful: German questionnaire version has a divergent coding, with 1=not important and 5=very important; please code your German questionnaires as they are on paper but highlight them here in Excel in yellow, so that I can convert them automatically. Thanks!</t>
       </text>
     </comment>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="259">
   <si>
     <t>Variable type</t>
   </si>
@@ -916,6 +916,21 @@
   </si>
   <si>
     <t xml:space="preserve">Jucy </t>
+  </si>
+  <si>
+    <t>Sim Sim</t>
+  </si>
+  <si>
+    <t>11:00-14:00 and 17:00-19:00</t>
+  </si>
+  <si>
+    <t>Between 15 and 17:00</t>
+  </si>
+  <si>
+    <t>from 14:00 till 17:00</t>
+  </si>
+  <si>
+    <t>Offers like a free drink</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1121,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1471,18 +1486,18 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:CN580"/>
+  <dimension ref="A1:CN581"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="2" customWidth="1"/>
@@ -1492,13 +1507,13 @@
     <col min="11" max="11" width="21.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="22.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="14" style="2" customWidth="1"/>
     <col min="17" max="19" width="11.42578125" style="2"/>
     <col min="20" max="20" width="20.28515625" style="2" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" style="2"/>
-    <col min="22" max="23" width="11.42578125" style="8"/>
+    <col min="22" max="23" width="11.42578125" style="8" customWidth="1"/>
     <col min="24" max="24" width="19" style="8" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="8" customWidth="1"/>
     <col min="26" max="26" width="20.42578125" style="8" customWidth="1"/>
@@ -2353,8 +2368,17 @@
       <c r="K9" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
       <c r="P9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T9" s="2">
         <v>2</v>
@@ -2408,68 +2432,46 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="2">
-        <v>2</v>
+        <v>256</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="X10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>8</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>11</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>3</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
@@ -2478,68 +2480,75 @@
         <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>45974</v>
+        <v>45973</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" s="2">
+        <v>117</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2">
         <v>3</v>
       </c>
-      <c r="T11" s="2">
-        <v>2</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
       <c r="Z11" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AD11" s="16">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>0.72719999999999996</v>
-      </c>
-      <c r="AF11" s="16">
-        <v>9.0899999999999995E-2</v>
+      <c r="AC11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>11</v>
       </c>
       <c r="AI11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.2">
@@ -2547,13 +2556,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="5">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2565,49 +2574,40 @@
         <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>5</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3</v>
       </c>
       <c r="T12" s="2">
         <v>2</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="X12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
         <v>1</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AD12" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF12" s="16" t="s">
-        <v>208</v>
+      <c r="AD12" s="16">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="AI12" s="2">
         <v>1</v>
@@ -2616,81 +2616,88 @@
         <v>1</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU12" s="2" t="s">
-        <v>250</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AU12" s="2"/>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>9</v>
       </c>
       <c r="C13" s="5">
-        <v>45974</v>
+        <v>45973</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
         <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="P13" s="2">
-        <v>3</v>
+      <c r="R13" s="2">
+        <v>5</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="X13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="X13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="AD13" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF13" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="AI13" s="2">
         <v>1</v>
       </c>
-      <c r="AJ13" s="8">
-        <v>2</v>
+      <c r="AJ13" s="2">
+        <v>1</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.2">
@@ -2698,58 +2705,55 @@
         <v>10</v>
       </c>
       <c r="C14" s="5">
-        <v>45977</v>
+        <v>45974</v>
       </c>
       <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>4</v>
-      </c>
       <c r="T14" s="2">
         <v>1</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="2">
+        <v>152</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8">
         <v>2</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>37</v>
@@ -2757,26 +2761,28 @@
       <c r="AI14" s="2">
         <v>1</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14" s="8">
         <v>2</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU14" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>11</v>
       </c>
       <c r="C15" s="5">
-        <v>45978</v>
+        <v>45977</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -2788,13 +2794,16 @@
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
       </c>
       <c r="Q15" s="2">
         <v>4</v>
@@ -2803,77 +2812,121 @@
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="X15" s="2">
         <v>1</v>
       </c>
       <c r="Y15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="8">
-        <v>3</v>
-      </c>
       <c r="AI15" s="2">
         <v>1</v>
       </c>
       <c r="AJ15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AU15" s="2"/>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="C16" s="5">
+        <v>45978</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="AA16" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="AC16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="AD16" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="8">
         <v>3</v>
       </c>
-      <c r="AF16" s="8">
-        <v>1</v>
-      </c>
       <c r="AI16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:47" ht="15" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -2885,14 +2938,17 @@
       <c r="AA17" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="AD17" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>1</v>
+      </c>
       <c r="AI17" s="2">
-        <v>2</v>
-      </c>
-      <c r="AT17" s="26">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AU17" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -2908,13 +2964,13 @@
         <v>37</v>
       </c>
       <c r="AI18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="26">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AU18" s="27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -2930,13 +2986,13 @@
         <v>37</v>
       </c>
       <c r="AI19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="26">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AU19" s="27">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -2952,13 +3008,13 @@
         <v>37</v>
       </c>
       <c r="AI20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="26">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" s="27">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -2977,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="AT21" s="26">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="AU21" s="27">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -2996,13 +3052,13 @@
         <v>37</v>
       </c>
       <c r="AI22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AU22" s="27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -3018,19 +3074,20 @@
         <v>37</v>
       </c>
       <c r="AI23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT23" s="26">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="AU23" s="27">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>20</v>
       </c>
+      <c r="C24" s="15"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -3039,17 +3096,19 @@
         <v>37</v>
       </c>
       <c r="AI24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AU24" s="27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="2:47" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>21</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -3058,13 +3117,13 @@
         <v>37</v>
       </c>
       <c r="AI25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT25" s="26">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="AU25" s="27">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -3077,47 +3136,47 @@
         <v>37</v>
       </c>
       <c r="AI26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="26">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="AU26" s="27">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="2:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
       <c r="AA27" s="8" t="s">
         <v>37</v>
       </c>
       <c r="AI27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT27" s="26">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="AU27" s="27">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
       <c r="AA28" s="8" t="s">
         <v>37</v>
       </c>
       <c r="AI28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT28" s="26">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AU28" s="27">
-        <v>0.2</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="29" spans="2:47" ht="15" x14ac:dyDescent="0.2">
@@ -3130,71 +3189,87 @@
         <v>37</v>
       </c>
       <c r="AI29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="26">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="AU29" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
+      <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
+      <c r="AA30" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="AI30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR30" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT30" s="28"/>
-      <c r="AU30" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="AT30" s="26">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AU30" s="27">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="31" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
       <c r="AI31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR31" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="AT31" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AT31" s="28"/>
+      <c r="AU31" s="28"/>
     </row>
     <row r="32" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="AI32" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AR32" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT32" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="AI33" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="AI34" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="AI35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
+      <c r="AI36" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
@@ -3208,128 +3283,101 @@
     <row r="40" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
-      <c r="AH41" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI41" s="21">
-        <v>6</v>
-      </c>
-      <c r="AJ41" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ41" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="AR41" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS41" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU41" s="22"/>
-      <c r="AV41" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW41" s="22" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="42" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="AH42" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AI42" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ42" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ42" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR42" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS42" s="24">
-        <v>15</v>
-      </c>
-      <c r="AU42" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV42" s="21">
-        <v>7</v>
-      </c>
-      <c r="AW42" s="21" t="s">
-        <v>240</v>
+        <v>222</v>
+      </c>
+      <c r="AQ42" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR42" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS42" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW42" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="AH43" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AI43" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ43" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AQ43" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AR43" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AS43" s="24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AU43" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AV43" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW43" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
       <c r="AH44" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AI44" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ44" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AQ44" s="24" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="AR44" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS44" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AU44" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV44" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW44" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="2:49" ht="15" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="AH45" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AI45" s="21">
         <v>2</v>
@@ -3338,38 +3386,65 @@
         <v>228</v>
       </c>
       <c r="AQ45" s="24" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="AR45" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AS45" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AU45" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV45" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:49" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="AH46" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI46" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ46" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ46" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR46" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS46" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:49" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="AH47" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AI46" s="21">
+      <c r="AI47" s="21">
         <v>3</v>
       </c>
-      <c r="AJ46" s="21" t="s">
+      <c r="AJ47" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="AQ46" s="24" t="s">
+      <c r="AQ47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="AR46" s="24" t="s">
+      <c r="AR47" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="AS46" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
+      <c r="AS47" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
@@ -4969,6 +5044,9 @@
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B580" s="6"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B581" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4988,7 +5066,7 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
